--- a/Testing-Phase1/login.xlsx
+++ b/Testing-Phase1/login.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11340" windowHeight="3480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>user1@gmail.com</t>
   </si>
@@ -40,6 +41,12 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Abc@123</t>
+  </si>
+  <si>
+    <t>user@y.c</t>
   </si>
 </sst>
 </file>
@@ -84,10 +91,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -369,20 +377,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -401,7 +409,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -418,6 +426,28 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -426,6 +456,8 @@
     <hyperlink ref="A1" r:id="rId1"/>
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Testing-Phase1/login.xlsx
+++ b/Testing-Phase1/login.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
-  <si>
-    <t>user1@gmail.com</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t>pass</t>
   </si>
@@ -31,9 +27,6 @@
     <t>not</t>
   </si>
   <si>
-    <t>user@gmail.com</t>
-  </si>
-  <si>
     <t>123456</t>
   </si>
   <si>
@@ -46,7 +39,10 @@
     <t>Abc@123</t>
   </si>
   <si>
-    <t>user@y.c</t>
+    <t>user@carePoint.misr</t>
+  </si>
+  <si>
+    <t>user1@carePoint.misr</t>
   </si>
 </sst>
 </file>
@@ -93,9 +89,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -380,75 +376,75 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -457,7 +453,6 @@
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
